--- a/src/data/reports/DE444.xlsx
+++ b/src/data/reports/DE444.xlsx
@@ -5628,7 +5628,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
         <v>31</v>
